--- a/ExcelFile/casedata.xlsx
+++ b/ExcelFile/casedata.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="21480" windowHeight="12270"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="API_Add_Org_Data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,18 +16,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>数值1</t>
-  </si>
-  <si>
-    <t>数值2</t>
-  </si>
-  <si>
-    <t>数值3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+  <si>
+    <t>用例编号</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>接口URL</t>
+  </si>
+  <si>
+    <t>orgName</t>
+  </si>
+  <si>
+    <t>pOrgld</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>预期结果</t>
+  </si>
+  <si>
+    <t>case_001</t>
+  </si>
+  <si>
+    <t>新增组织接口</t>
+  </si>
+  <si>
+    <t>http://192.168.2.200:8083/unionOrg/addUnionOrg</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>case_002</t>
+  </si>
+  <si>
+    <t>测测1</t>
+  </si>
+  <si>
+    <t>case_003</t>
+  </si>
+  <si>
+    <t>名字很长很长很长很长1</t>
   </si>
 </sst>
 </file>
@@ -37,8 +79,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -49,6 +91,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -57,21 +136,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,6 +189,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -94,20 +212,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -115,85 +219,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,187 +244,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,17 +453,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,52 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -513,139 +561,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -995,85 +1058,136 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="2" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4">
+        <v>160</v>
+      </c>
+      <c r="G2" s="4">
+        <v>18227101093</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>160</v>
+      </c>
+      <c r="G3" s="4">
+        <v>18227101093</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>160</v>
+      </c>
+      <c r="G4" s="4">
+        <v>18227101093</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://192.168.2.200:8083/unionOrg/addUnionOrg"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://192.168.2.200:8083/unionOrg/addUnionOrg"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://192.168.2.200:8083/unionOrg/addUnionOrg"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/ExcelFile/casedata.xlsx
+++ b/ExcelFile/casedata.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="21480" windowHeight="12270"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>用例编号</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>预期结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
   </si>
   <si>
     <t>case_001</t>
@@ -76,12 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -91,7 +89,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -106,6 +103,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -114,7 +134,66 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,28 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -158,78 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,8 +442,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -458,6 +456,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,11 +492,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,200 +537,64 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -762,7 +661,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1058,136 +957,137 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E26" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5">
         <v>160</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>18227101093</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5">
+        <v>160</v>
+      </c>
+      <c r="G3" s="5">
+        <v>18227101093</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4">
-        <v>160</v>
-      </c>
-      <c r="G3" s="4">
-        <v>18227101093</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5">
         <v>160</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>18227101093</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://192.168.2.200:8083/unionOrg/addUnionOrg"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://192.168.2.200:8083/unionOrg/addUnionOrg"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://192.168.2.200:8083/unionOrg/addUnionOrg"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1203,7 +1103,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1220,7 +1120,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
